--- a/data/DAAVDATA.xlsx
+++ b/data/DAAVDATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathi\OneDrive\Dokumenter\UNIVERSITY\DAAV Project 2023\DAAVProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathi\OneDrive\Dokumenter\UNIVERSITY\DAAV Project 2023\DAAVProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7046ECB5-4592-45B3-85A9-AF180FD33372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8853512E-1FD1-423F-9F86-DB9586CC58AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="675" windowWidth="12570" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="1695" windowWidth="12435" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,6 @@
     <t>Single-shot Espresso</t>
   </si>
   <si>
-    <t>Doppio / Double-shot</t>
-  </si>
-  <si>
-    <t>Tripplo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Americano </t>
   </si>
   <si>
@@ -68,9 +62,6 @@
     <t xml:space="preserve">Decaf Coffee </t>
   </si>
   <si>
-    <t>Filter/brewed coffee</t>
-  </si>
-  <si>
     <t>Type of coffee</t>
   </si>
   <si>
@@ -87,6 +78,15 @@
   </si>
   <si>
     <t>Frappuccino / Frappé</t>
+  </si>
+  <si>
+    <t>Double-shot Espresso</t>
+  </si>
+  <si>
+    <t>Triple-shot Espresso</t>
+  </si>
+  <si>
+    <t>Filter / Brewed Coffee</t>
   </si>
 </sst>
 </file>
@@ -107,6 +107,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,16 +115,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,10 +286,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -298,6 +298,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,7 +624,7 @@
   <dimension ref="B2:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -636,30 +640,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>455</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>382</v>
       </c>
       <c r="E3" s="1">
@@ -689,12 +693,12 @@
         <v>100</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>455</v>
@@ -714,13 +718,13 @@
     </row>
     <row r="6" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>455</v>
       </c>
       <c r="D6" s="1">
-        <v>488</v>
+        <v>345</v>
       </c>
       <c r="E6" s="1">
         <v>50</v>
@@ -734,7 +738,7 @@
     </row>
     <row r="7" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>170</v>
@@ -754,7 +758,7 @@
     </row>
     <row r="8" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>50</v>
@@ -774,7 +778,7 @@
     </row>
     <row r="9" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
         <v>455</v>
@@ -794,7 +798,7 @@
     </row>
     <row r="10" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>455</v>
@@ -814,7 +818,7 @@
     </row>
     <row r="11" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B11" s="16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
         <v>227</v>
@@ -834,7 +838,7 @@
     </row>
     <row r="12" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>455</v>
@@ -854,7 +858,7 @@
     </row>
     <row r="13" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>75</v>
@@ -874,7 +878,7 @@
     </row>
     <row r="14" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>455</v>
@@ -894,7 +898,7 @@
     </row>
     <row r="15" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
         <v>455</v>
@@ -914,7 +918,7 @@
     </row>
     <row r="16" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16" s="8">
         <v>455</v>

--- a/data/DAAVDATA.xlsx
+++ b/data/DAAVDATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathi\OneDrive\Dokumenter\UNIVERSITY\DAAV Project 2023\DAAVProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8853512E-1FD1-423F-9F86-DB9586CC58AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B59A58-0DDB-4F6E-A9C0-C460F0A64583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="1695" windowWidth="12435" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,43 +197,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -253,11 +216,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -284,24 +278,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,7 +623,7 @@
   <dimension ref="B2:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -640,30 +639,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="25">
         <v>455</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>382</v>
       </c>
       <c r="E3" s="1">
@@ -677,10 +676,10 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="25">
         <v>25</v>
       </c>
       <c r="D4" s="1">
@@ -693,14 +692,14 @@
         <v>100</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="25">
         <v>455</v>
       </c>
       <c r="D5" s="1">
@@ -717,10 +716,10 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="25">
         <v>455</v>
       </c>
       <c r="D6" s="1">
@@ -737,10 +736,10 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="25">
         <v>170</v>
       </c>
       <c r="D7" s="1">
@@ -757,10 +756,10 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="25">
         <v>50</v>
       </c>
       <c r="D8" s="1">
@@ -777,10 +776,10 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="25">
         <v>455</v>
       </c>
       <c r="D9" s="1">
@@ -797,10 +796,10 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="25">
         <v>455</v>
       </c>
       <c r="D10" s="1">
@@ -817,10 +816,10 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="25">
         <v>227</v>
       </c>
       <c r="D11" s="1">
@@ -837,10 +836,10 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="25">
         <v>455</v>
       </c>
       <c r="D12" s="1">
@@ -857,17 +856,17 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1">
-        <v>75</v>
+      <c r="B13" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="25">
+        <v>455</v>
       </c>
       <c r="D13" s="1">
-        <v>90</v>
+        <v>332</v>
       </c>
       <c r="E13" s="1">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="F13" s="10">
         <v>325</v>
@@ -877,17 +876,17 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="25">
         <v>455</v>
       </c>
       <c r="D14" s="1">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="E14" s="1">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="F14" s="10">
         <v>325</v>
@@ -897,17 +896,17 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>455</v>
+      <c r="B15" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="25">
+        <v>75</v>
       </c>
       <c r="D15" s="1">
-        <v>332</v>
+        <v>90</v>
       </c>
       <c r="E15" s="1">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="F15" s="10">
         <v>325</v>
@@ -917,17 +916,17 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="8">
+      <c r="B16" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="26">
         <v>455</v>
       </c>
       <c r="D16" s="8">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="E16" s="8">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="F16" s="12">
         <v>325</v>
